--- a/SADOWSKI_Planning.xlsx
+++ b/SADOWSKI_Planning.xlsx
@@ -39,9 +39,6 @@
     <t xml:space="preserve">Programation </t>
   </si>
   <si>
-    <t>Réalisation un document de présentation</t>
-  </si>
-  <si>
     <t>Création du plan de test</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Démonstration</t>
   </si>
   <si>
-    <t>Réalisation de QCMs</t>
-  </si>
-  <si>
     <t>Documentation</t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>Interconnexion base de données - Application (requeste)</t>
+  </si>
+  <si>
+    <t>1H = 45min</t>
+  </si>
+  <si>
+    <t>Réalisation du document de présentation</t>
   </si>
 </sst>
 </file>
@@ -106,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##&quot;H&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +125,14 @@
     <font>
       <b/>
       <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -157,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -459,11 +467,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,6 +569,63 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,61 +647,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:G20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,36 +967,42 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="4:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="4:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="8" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
     <row r="9" spans="4:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="3">
         <v>42615</v>
       </c>
@@ -1039,12 +1065,12 @@
       </c>
     </row>
     <row r="10" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D10" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
+      <c r="D10" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
@@ -1067,27 +1093,21 @@
       <c r="AA10" s="6"/>
     </row>
     <row r="11" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D11" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="D11" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" s="9">
         <v>2</v>
       </c>
-      <c r="J11" s="10">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
-        <v>2</v>
-      </c>
-      <c r="L11" s="10">
-        <v>1</v>
-      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="9"/>
       <c r="N11" s="10"/>
       <c r="O11" s="9"/>
@@ -1105,25 +1125,21 @@
       <c r="AA11" s="9"/>
     </row>
     <row r="12" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D12" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
+      <c r="D12" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13">
-        <v>3</v>
-      </c>
-      <c r="K12" s="12">
-        <v>1</v>
-      </c>
+      <c r="I12" s="12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="13"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="13">
-        <v>1</v>
-      </c>
+      <c r="N12" s="13"/>
       <c r="O12" s="12"/>
       <c r="P12" s="24"/>
       <c r="Q12" s="12"/>
@@ -1139,19 +1155,17 @@
       <c r="AA12" s="12"/>
     </row>
     <row r="13" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D13" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
+      <c r="D13" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="10">
-        <v>1</v>
-      </c>
+      <c r="L13" s="10"/>
       <c r="M13" s="9"/>
       <c r="N13" s="10"/>
       <c r="O13" s="9"/>
@@ -1164,17 +1178,17 @@
       <c r="V13" s="10"/>
       <c r="W13" s="9"/>
       <c r="X13" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y13" s="24"/>
       <c r="Z13" s="25"/>
       <c r="AA13" s="9"/>
     </row>
     <row r="14" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="13"/>
@@ -1197,10 +1211,10 @@
       <c r="AA14" s="12"/>
     </row>
     <row r="15" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
@@ -1223,12 +1237,12 @@
       <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
@@ -1251,22 +1265,22 @@
       <c r="AA16" s="15"/>
     </row>
     <row r="17" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="J17" s="10">
+        <v>4</v>
+      </c>
       <c r="K17" s="9"/>
       <c r="L17" s="10"/>
       <c r="M17" s="9"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="9">
-        <v>1</v>
-      </c>
+      <c r="O17" s="9"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="10"/>
@@ -1281,24 +1295,24 @@
       <c r="AA17" s="9"/>
     </row>
     <row r="18" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13">
+        <v>1</v>
+      </c>
       <c r="K18" s="12">
-        <v>1</v>
-      </c>
-      <c r="L18" s="13">
         <v>2</v>
       </c>
-      <c r="M18" s="12">
-        <v>1</v>
-      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="12"/>
       <c r="N18" s="13"/>
       <c r="O18" s="12"/>
       <c r="P18" s="24"/>
@@ -1315,28 +1329,26 @@
       <c r="AA18" s="12"/>
     </row>
     <row r="19" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D19" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
+      <c r="D19" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="10">
+        <v>5</v>
+      </c>
       <c r="M19" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" s="10"/>
-      <c r="O19" s="9">
-        <v>1</v>
-      </c>
+      <c r="O19" s="9"/>
       <c r="P19" s="24"/>
-      <c r="Q19" s="9">
-        <v>2</v>
-      </c>
+      <c r="Q19" s="9"/>
       <c r="R19" s="10"/>
       <c r="S19" s="9"/>
       <c r="T19" s="10"/>
@@ -1349,24 +1361,36 @@
       <c r="AA19" s="9"/>
     </row>
     <row r="20" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D20" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
+      <c r="D20" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="13"/>
       <c r="K20" s="12"/>
       <c r="L20" s="13"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="12"/>
+      <c r="M20" s="12">
+        <v>3</v>
+      </c>
+      <c r="N20" s="13">
+        <v>5</v>
+      </c>
+      <c r="O20" s="12">
+        <v>5</v>
+      </c>
       <c r="P20" s="24"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="12"/>
+      <c r="Q20" s="12">
+        <v>5</v>
+      </c>
+      <c r="R20" s="13">
+        <v>5</v>
+      </c>
+      <c r="S20" s="12">
+        <v>5</v>
+      </c>
       <c r="T20" s="13"/>
       <c r="U20" s="12"/>
       <c r="V20" s="13"/>
@@ -1377,28 +1401,24 @@
       <c r="AA20" s="12"/>
     </row>
     <row r="21" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D21" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
+      <c r="D21" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="9"/>
+      <c r="K21" s="9">
+        <v>3</v>
+      </c>
       <c r="L21" s="10"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="10">
-        <v>3</v>
-      </c>
-      <c r="O21" s="9">
-        <v>1</v>
-      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="24"/>
-      <c r="Q21" s="9">
-        <v>2</v>
-      </c>
+      <c r="Q21" s="9"/>
       <c r="R21" s="10"/>
       <c r="S21" s="9"/>
       <c r="T21" s="10"/>
@@ -1411,24 +1431,18 @@
       <c r="AA21" s="9"/>
     </row>
     <row r="22" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D22" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="13"/>
       <c r="K22" s="12"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="12">
-        <v>2</v>
-      </c>
+      <c r="M22" s="12"/>
       <c r="N22" s="13"/>
-      <c r="O22" s="12">
-        <v>2</v>
-      </c>
+      <c r="O22" s="12"/>
       <c r="P22" s="24"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="13"/>
@@ -1443,10 +1457,10 @@
       <c r="AA22" s="12"/>
     </row>
     <row r="23" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="10"/>
@@ -1469,10 +1483,10 @@
       <c r="AA23" s="9"/>
     </row>
     <row r="24" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="13"/>
@@ -1495,12 +1509,12 @@
       <c r="AA24" s="12"/>
     </row>
     <row r="25" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D25" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
+      <c r="D25" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="16"/>
@@ -1523,18 +1537,14 @@
       <c r="AA25" s="15"/>
     </row>
     <row r="26" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D26" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="12">
-        <v>2</v>
-      </c>
-      <c r="I26" s="12">
-        <v>1</v>
-      </c>
+      <c r="D26" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="13"/>
       <c r="K26" s="12"/>
       <c r="L26" s="13"/>
@@ -1545,26 +1555,30 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="13"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="13"/>
+      <c r="T26" s="13">
+        <v>3</v>
+      </c>
       <c r="U26" s="12"/>
       <c r="V26" s="13"/>
-      <c r="W26" s="12"/>
+      <c r="W26" s="12">
+        <v>5</v>
+      </c>
       <c r="X26" s="14"/>
       <c r="Y26" s="24"/>
       <c r="Z26" s="25"/>
       <c r="AA26" s="12"/>
     </row>
     <row r="27" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9">
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="9">
         <v>1</v>
       </c>
+      <c r="I27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="9"/>
       <c r="L27" s="10"/>
@@ -1585,12 +1599,12 @@
       <c r="AA27" s="9"/>
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D28" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="D28" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="13"/>
@@ -1603,7 +1617,9 @@
       <c r="Q28" s="12"/>
       <c r="R28" s="13"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="13"/>
+      <c r="T28" s="13">
+        <v>2</v>
+      </c>
       <c r="U28" s="12"/>
       <c r="V28" s="13"/>
       <c r="W28" s="12"/>
@@ -1613,12 +1629,12 @@
       <c r="AA28" s="12"/>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D29" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
+      <c r="D29" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="10"/>
@@ -1633,7 +1649,9 @@
       <c r="S29" s="9"/>
       <c r="T29" s="10"/>
       <c r="U29" s="9"/>
-      <c r="V29" s="10"/>
+      <c r="V29" s="10">
+        <v>5</v>
+      </c>
       <c r="W29" s="9"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="24"/>
@@ -1641,12 +1659,12 @@
       <c r="AA29" s="9"/>
     </row>
     <row r="30" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D30" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
+      <c r="D30" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="16"/>
@@ -1669,12 +1687,12 @@
       <c r="AA30" s="15"/>
     </row>
     <row r="31" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D31" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
+      <c r="D31" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="10"/>
@@ -1688,7 +1706,9 @@
       <c r="R31" s="10"/>
       <c r="S31" s="9"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="9"/>
+      <c r="U31" s="9">
+        <v>3</v>
+      </c>
       <c r="V31" s="10"/>
       <c r="W31" s="9"/>
       <c r="X31" s="11"/>
@@ -1697,12 +1717,12 @@
       <c r="AA31" s="9"/>
     </row>
     <row r="32" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D32" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
+      <c r="D32" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="13"/>
@@ -1716,7 +1736,9 @@
       <c r="R32" s="13"/>
       <c r="S32" s="12"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="12"/>
+      <c r="U32" s="12">
+        <v>2</v>
+      </c>
       <c r="V32" s="13"/>
       <c r="W32" s="12"/>
       <c r="X32" s="14"/>
@@ -1725,10 +1747,10 @@
       <c r="AA32" s="12"/>
     </row>
     <row r="33" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="10"/>
@@ -1751,10 +1773,10 @@
       <c r="AA33" s="9"/>
     </row>
     <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="13"/>
@@ -1777,12 +1799,12 @@
       <c r="AA34" s="12"/>
     </row>
     <row r="35" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D35" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
+      <c r="D35" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
@@ -1805,12 +1827,12 @@
       <c r="AA35" s="15"/>
     </row>
     <row r="36" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D36" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
+      <c r="D36" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="13"/>
@@ -1831,16 +1853,16 @@
       <c r="Y36" s="24"/>
       <c r="Z36" s="25"/>
       <c r="AA36" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D37" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
+      <c r="D37" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="10"/>
@@ -1861,14 +1883,14 @@
       <c r="Y37" s="24"/>
       <c r="Z37" s="25"/>
       <c r="AA37" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="35"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="13"/>
@@ -1891,12 +1913,12 @@
       <c r="AA38" s="12"/>
     </row>
     <row r="39" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
+      <c r="D39" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
@@ -1914,25 +1936,43 @@
       <c r="V39" s="20"/>
       <c r="W39" s="19"/>
       <c r="X39" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y39" s="28"/>
       <c r="Z39" s="29"/>
       <c r="AA39" s="19"/>
     </row>
     <row r="40" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
     </row>
     <row r="43" spans="4:27" x14ac:dyDescent="0.25">
       <c r="K43" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="D4:G6"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D39:G39"/>
@@ -1949,23 +1989,6 @@
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D4:G6"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SADOWSKI_Planning.xlsx
+++ b/SADOWSKI_Planning.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Planning</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>Génération du diagramme de classe</t>
   </si>
   <si>
     <t>Démarrage du projet/ discussion prof</t>
@@ -102,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##&quot;H&quot;"/>
   </numFmts>
@@ -569,6 +566,36 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,6 +605,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,6 +623,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,57 +645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,6 +656,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -707,7 +707,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -740,9 +740,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -775,6 +792,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -951,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:AA43"/>
+  <dimension ref="D4:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="I6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,47 +996,60 @@
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="6" width="11.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="27" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="4:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="4:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="5"/>
     </row>
     <row r="8" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+      <c r="D8" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="4:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="3">
         <v>42615</v>
       </c>
@@ -1065,12 +1112,12 @@
       </c>
     </row>
     <row r="10" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
@@ -1093,12 +1140,12 @@
       <c r="AA10" s="6"/>
     </row>
     <row r="11" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D11" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
+      <c r="D11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="9">
         <v>4</v>
       </c>
@@ -1125,12 +1172,12 @@
       <c r="AA11" s="9"/>
     </row>
     <row r="12" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12">
         <v>2</v>
@@ -1155,840 +1202,809 @@
       <c r="AA12" s="12"/>
     </row>
     <row r="13" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D13" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="9"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="12"/>
       <c r="P13" s="24"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="14"/>
       <c r="Y13" s="24"/>
       <c r="Z13" s="25"/>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="12"/>
     </row>
     <row r="14" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D14" s="40"/>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="12"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="24"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="14"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="11"/>
       <c r="Y14" s="24"/>
       <c r="Z14" s="25"/>
-      <c r="AA14" s="12"/>
+      <c r="AA14" s="9"/>
     </row>
     <row r="15" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="9"/>
+      <c r="D15" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="24"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="9"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="15"/>
     </row>
     <row r="16" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D16" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="15"/>
+      <c r="D16" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10">
+        <v>4</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="24"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="15"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="9"/>
     </row>
     <row r="17" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D17" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10">
-        <v>4</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="9"/>
+      <c r="D17" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12">
+        <v>2</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="24"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="11"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="14"/>
       <c r="Y17" s="24"/>
       <c r="Z17" s="25"/>
-      <c r="AA17" s="9"/>
+      <c r="AA17" s="12"/>
     </row>
     <row r="18" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10">
         <v>5</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12">
-        <v>1</v>
-      </c>
-      <c r="J18" s="13">
-        <v>1</v>
-      </c>
-      <c r="K18" s="12">
+      <c r="M18" s="9">
         <v>2</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="12"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="24"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="14"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="11"/>
       <c r="Y18" s="24"/>
       <c r="Z18" s="25"/>
-      <c r="AA18" s="12"/>
+      <c r="AA18" s="9"/>
     </row>
     <row r="19" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D19" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10">
+      <c r="D19" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="12">
+        <v>3</v>
+      </c>
+      <c r="N19" s="13">
         <v>5</v>
       </c>
-      <c r="M19" s="9">
-        <v>2</v>
-      </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="9"/>
+      <c r="O19" s="12">
+        <v>5</v>
+      </c>
       <c r="P19" s="24"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="11"/>
+      <c r="Q19" s="12">
+        <v>5</v>
+      </c>
+      <c r="R19" s="13">
+        <v>5</v>
+      </c>
+      <c r="S19" s="12">
+        <v>5</v>
+      </c>
+      <c r="T19" s="13"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="14"/>
       <c r="Y19" s="24"/>
       <c r="Z19" s="25"/>
-      <c r="AA19" s="9"/>
+      <c r="AA19" s="12"/>
     </row>
     <row r="20" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D20" s="40" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
       <c r="G20" s="42"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="12">
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9">
         <v>3</v>
       </c>
-      <c r="N20" s="13">
-        <v>5</v>
-      </c>
-      <c r="O20" s="12">
-        <v>5</v>
-      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="9"/>
       <c r="P20" s="24"/>
-      <c r="Q20" s="12">
-        <v>5</v>
-      </c>
-      <c r="R20" s="13">
-        <v>5</v>
-      </c>
-      <c r="S20" s="12">
-        <v>5</v>
-      </c>
-      <c r="T20" s="13"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="14"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="11"/>
       <c r="Y20" s="24"/>
       <c r="Z20" s="25"/>
-      <c r="AA20" s="12"/>
+      <c r="AA20" s="9"/>
     </row>
     <row r="21" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D21" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="9">
-        <v>3</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="9"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="24"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="11"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="14"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="25"/>
-      <c r="AA21" s="9"/>
+      <c r="AA21" s="12"/>
     </row>
     <row r="22" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="12"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="24"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="14"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="11"/>
       <c r="Y22" s="24"/>
       <c r="Z22" s="25"/>
-      <c r="AA22" s="12"/>
+      <c r="AA22" s="9"/>
     </row>
     <row r="23" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="9"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="12"/>
       <c r="P23" s="24"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="11"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="14"/>
       <c r="Y23" s="24"/>
       <c r="Z23" s="25"/>
-      <c r="AA23" s="9"/>
+      <c r="AA23" s="12"/>
     </row>
     <row r="24" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="12"/>
+      <c r="D24" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="15"/>
       <c r="P24" s="24"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="12"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="15"/>
     </row>
     <row r="25" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D25" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="15"/>
+      <c r="D25" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="12"/>
       <c r="P25" s="24"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="15"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="13">
+        <v>3</v>
+      </c>
+      <c r="U25" s="12"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="12">
+        <v>5</v>
+      </c>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="12"/>
     </row>
     <row r="26" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D26" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="12"/>
+      <c r="D26" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="9">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="24"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="13">
-        <v>3</v>
-      </c>
-      <c r="U26" s="12"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="12">
-        <v>5</v>
-      </c>
-      <c r="X26" s="14"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="11"/>
       <c r="Y26" s="24"/>
       <c r="Z26" s="25"/>
-      <c r="AA26" s="12"/>
+      <c r="AA26" s="9"/>
     </row>
     <row r="27" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="13">
         <v>2</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="9">
-        <v>1</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="11"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="14"/>
       <c r="Y27" s="24"/>
       <c r="Z27" s="25"/>
-      <c r="AA27" s="9"/>
+      <c r="AA27" s="12"/>
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D28" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="12"/>
+      <c r="D28" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="9"/>
       <c r="P28" s="24"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="13">
-        <v>2</v>
-      </c>
-      <c r="U28" s="12"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="14"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="10">
+        <v>5</v>
+      </c>
+      <c r="W28" s="9"/>
+      <c r="X28" s="11"/>
       <c r="Y28" s="24"/>
       <c r="Z28" s="25"/>
-      <c r="AA28" s="12"/>
+      <c r="AA28" s="9"/>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D29" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="9"/>
+      <c r="D29" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="15"/>
       <c r="P29" s="24"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="10">
-        <v>5</v>
-      </c>
-      <c r="W29" s="9"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="9"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="15"/>
     </row>
     <row r="30" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D30" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="15"/>
+      <c r="D30" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="9"/>
       <c r="P30" s="24"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="15"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="9">
+        <v>3</v>
+      </c>
+      <c r="V30" s="10"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="9"/>
     </row>
     <row r="31" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D31" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="9"/>
+      <c r="D31" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="12"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="9">
-        <v>3</v>
-      </c>
-      <c r="V31" s="10"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="11"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="12">
+        <v>2</v>
+      </c>
+      <c r="V31" s="13"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="14"/>
       <c r="Y31" s="24"/>
       <c r="Z31" s="25"/>
-      <c r="AA31" s="9"/>
+      <c r="AA31" s="12"/>
     </row>
     <row r="32" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D32" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="12"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="9"/>
       <c r="P32" s="24"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="12">
-        <v>2</v>
-      </c>
-      <c r="V32" s="13"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="14"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="11"/>
       <c r="Y32" s="24"/>
       <c r="Z32" s="25"/>
-      <c r="AA32" s="12"/>
+      <c r="AA32" s="9"/>
     </row>
     <row r="33" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="9"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="12"/>
       <c r="P33" s="24"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="11"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="18"/>
       <c r="Y33" s="24"/>
       <c r="Z33" s="25"/>
-      <c r="AA33" s="9"/>
+      <c r="AA33" s="12"/>
     </row>
     <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="12"/>
+      <c r="D34" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="15"/>
       <c r="P34" s="24"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="12"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="15"/>
     </row>
     <row r="35" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D35" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="15"/>
+      <c r="D35" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="12"/>
       <c r="P35" s="24"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="15"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="36" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D36" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="12"/>
+      <c r="D36" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="9"/>
       <c r="P36" s="24"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="18"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="11"/>
       <c r="Y36" s="24"/>
       <c r="Z36" s="25"/>
-      <c r="AA36" s="12" t="s">
+      <c r="AA36" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D37" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="9"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="12"/>
       <c r="P37" s="24"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="11"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="14"/>
       <c r="Y37" s="24"/>
       <c r="Z37" s="25"/>
-      <c r="AA37" s="9" t="s">
+      <c r="AA37" s="12"/>
+    </row>
+    <row r="38" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="12"/>
-    </row>
-    <row r="39" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="19"/>
-    </row>
-    <row r="40" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-    </row>
-    <row r="43" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="K43" s="1" t="s">
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="19"/>
+    </row>
+    <row r="39" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+    </row>
+    <row r="42" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="K42" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="D4:G6"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
+  <mergeCells count="33">
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D4:G6"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
     <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
